--- a/FireFlink/src/test/resources/Data/yash.xlsx
+++ b/FireFlink/src/test/resources/Data/yash.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ram" sheetId="1" r:id="rId1"/>
+    <sheet name="hello" sheetId="2" r:id="rId2"/>
+    <sheet name="Facebook" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>raja</t>
   </si>
@@ -37,6 +39,27 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Abc123</t>
+  </si>
+  <si>
+    <t>Abc124</t>
+  </si>
+  <si>
+    <t>Abc125</t>
   </si>
 </sst>
 </file>
@@ -347,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -389,6 +412,95 @@
       </c>
       <c r="C3" s="1"/>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>8884227374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>9620101172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6362205410</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
